--- a/data/pca/factorExposure/factorExposure_2009-08-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01650837092582877</v>
+        <v>0.0167506086450831</v>
       </c>
       <c r="C2">
-        <v>0.001281354525940056</v>
+        <v>-0.0008153788715002227</v>
       </c>
       <c r="D2">
-        <v>0.00781512790288728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009268663558734567</v>
+      </c>
+      <c r="E2">
+        <v>0.00149962597068467</v>
+      </c>
+      <c r="F2">
+        <v>-0.01473537902094999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09298005679176163</v>
+        <v>0.0923374682562535</v>
       </c>
       <c r="C4">
-        <v>0.0203741470005414</v>
+        <v>-0.01445786510660224</v>
       </c>
       <c r="D4">
-        <v>0.07027969410095403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08369310973259463</v>
+      </c>
+      <c r="E4">
+        <v>0.02827340244691081</v>
+      </c>
+      <c r="F4">
+        <v>0.03202661318482662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1502246082776434</v>
+        <v>0.1605423753026382</v>
       </c>
       <c r="C6">
-        <v>0.02829226541973053</v>
+        <v>-0.02755405269216356</v>
       </c>
       <c r="D6">
-        <v>-0.02856517627082187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02535330031033865</v>
+      </c>
+      <c r="E6">
+        <v>0.008324037768615461</v>
+      </c>
+      <c r="F6">
+        <v>0.04141115185081534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06141363960143205</v>
+        <v>0.06268626613938824</v>
       </c>
       <c r="C7">
-        <v>0.002450756847518364</v>
+        <v>0.001690253081618712</v>
       </c>
       <c r="D7">
-        <v>0.04428133677614234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05240230475096558</v>
+      </c>
+      <c r="E7">
+        <v>0.01229004303974819</v>
+      </c>
+      <c r="F7">
+        <v>0.04678256810465033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06334618668140699</v>
+        <v>0.05823666513946717</v>
       </c>
       <c r="C8">
-        <v>-0.01053702117328606</v>
+        <v>0.0129148571940752</v>
       </c>
       <c r="D8">
-        <v>0.02455029662933591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0314903218084565</v>
+      </c>
+      <c r="E8">
+        <v>0.01782572944951864</v>
+      </c>
+      <c r="F8">
+        <v>-0.02552569301471917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0719106552903498</v>
+        <v>0.07052372228596086</v>
       </c>
       <c r="C9">
-        <v>0.01683772212296596</v>
+        <v>-0.01019963452390206</v>
       </c>
       <c r="D9">
-        <v>0.07058811254849288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08671620978699406</v>
+      </c>
+      <c r="E9">
+        <v>0.02411218736946918</v>
+      </c>
+      <c r="F9">
+        <v>0.04689689070747959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0848571876499794</v>
+        <v>0.08969597768943342</v>
       </c>
       <c r="C10">
-        <v>0.01345322183220077</v>
+        <v>-0.02105221010245661</v>
       </c>
       <c r="D10">
-        <v>-0.1644195430917531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.160762542510957</v>
+      </c>
+      <c r="E10">
+        <v>-0.03142124272915624</v>
+      </c>
+      <c r="F10">
+        <v>-0.05741541441951921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09168857098066231</v>
+        <v>0.08715177446867539</v>
       </c>
       <c r="C11">
-        <v>0.01777012496322148</v>
+        <v>-0.0107453052715485</v>
       </c>
       <c r="D11">
-        <v>0.1006731317395934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1174828074115587</v>
+      </c>
+      <c r="E11">
+        <v>0.04648101989361885</v>
+      </c>
+      <c r="F11">
+        <v>0.02179488047899572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09714245058527365</v>
+        <v>0.09019067751284709</v>
       </c>
       <c r="C12">
-        <v>0.01554104565127776</v>
+        <v>-0.00789980539038029</v>
       </c>
       <c r="D12">
-        <v>0.104452372696986</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320016771450825</v>
+      </c>
+      <c r="E12">
+        <v>0.04538484916891625</v>
+      </c>
+      <c r="F12">
+        <v>0.03125493974340628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04414218302711706</v>
+        <v>0.04250184366389501</v>
       </c>
       <c r="C13">
-        <v>0.005789514926822665</v>
+        <v>-0.00259426953014369</v>
       </c>
       <c r="D13">
-        <v>0.03159568409322128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05314341001569513</v>
+      </c>
+      <c r="E13">
+        <v>-0.003578383527432108</v>
+      </c>
+      <c r="F13">
+        <v>0.001402196894405337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01928747084875554</v>
+        <v>0.02356355603053016</v>
       </c>
       <c r="C14">
-        <v>0.0150421270078165</v>
+        <v>-0.0137184711348038</v>
       </c>
       <c r="D14">
-        <v>0.02607129686307216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03298209916296388</v>
+      </c>
+      <c r="E14">
+        <v>0.01817532143414248</v>
+      </c>
+      <c r="F14">
+        <v>0.01215357645201402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03418531986515604</v>
+        <v>0.03305119724803068</v>
       </c>
       <c r="C15">
-        <v>0.007504109379440649</v>
+        <v>-0.004800170184492083</v>
       </c>
       <c r="D15">
-        <v>0.0358022159759962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04608151567140619</v>
+      </c>
+      <c r="E15">
+        <v>0.007259439406687252</v>
+      </c>
+      <c r="F15">
+        <v>0.02674955379419594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07679631675277271</v>
+        <v>0.07270604917192734</v>
       </c>
       <c r="C16">
-        <v>0.008462087175830997</v>
+        <v>-0.00126297537465052</v>
       </c>
       <c r="D16">
-        <v>0.1022971545484864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1282843994107442</v>
+      </c>
+      <c r="E16">
+        <v>0.06081167534074227</v>
+      </c>
+      <c r="F16">
+        <v>0.02620586478720607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000508542520048176</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.000226548854892417</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001319103753570553</v>
+      </c>
+      <c r="E17">
+        <v>0.001090064686741359</v>
+      </c>
+      <c r="F17">
+        <v>-0.002469735894335397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01797547330821964</v>
+        <v>0.03834890533983083</v>
       </c>
       <c r="C18">
-        <v>-0.003183297284908441</v>
+        <v>0.002879589483783355</v>
       </c>
       <c r="D18">
-        <v>0.02805411869744437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01555784706826549</v>
+      </c>
+      <c r="E18">
+        <v>-0.007892532977332905</v>
+      </c>
+      <c r="F18">
+        <v>-0.008604096191217219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06555915481241541</v>
+        <v>0.06248600243255472</v>
       </c>
       <c r="C20">
-        <v>0.006341606384014853</v>
+        <v>-0.0005265558632952255</v>
       </c>
       <c r="D20">
-        <v>0.05789408781190002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07854848967923818</v>
+      </c>
+      <c r="E20">
+        <v>0.05655140522296512</v>
+      </c>
+      <c r="F20">
+        <v>0.02966174317950139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03994502368623899</v>
+        <v>0.041101354867745</v>
       </c>
       <c r="C21">
-        <v>0.009864061288342175</v>
+        <v>-0.006455476821599417</v>
       </c>
       <c r="D21">
-        <v>0.03234095229324734</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0382575476416866</v>
+      </c>
+      <c r="E21">
+        <v>-0.001092253108444249</v>
+      </c>
+      <c r="F21">
+        <v>-0.02331549727137537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04236312475765565</v>
+        <v>0.0446905566346926</v>
       </c>
       <c r="C22">
-        <v>0.001592165566702507</v>
+        <v>-0.001267918776915324</v>
       </c>
       <c r="D22">
-        <v>-0.003479095078764818</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007635365645111727</v>
+      </c>
+      <c r="E22">
+        <v>0.0395198930904813</v>
+      </c>
+      <c r="F22">
+        <v>-0.03716050854364465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04232615096561149</v>
+        <v>0.04466646014196173</v>
       </c>
       <c r="C23">
-        <v>0.001581974296180962</v>
+        <v>-0.001259204705387025</v>
       </c>
       <c r="D23">
-        <v>-0.003456556346801884</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007650333477316395</v>
+      </c>
+      <c r="E23">
+        <v>0.0397027406614014</v>
+      </c>
+      <c r="F23">
+        <v>-0.03712205902505442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08303858418137497</v>
+        <v>0.07866090625493832</v>
       </c>
       <c r="C24">
-        <v>0.008649402132267258</v>
+        <v>-0.001860963123991993</v>
       </c>
       <c r="D24">
-        <v>0.1068221481297271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1204295002814881</v>
+      </c>
+      <c r="E24">
+        <v>0.04850919123942554</v>
+      </c>
+      <c r="F24">
+        <v>0.02873313154428416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08823560804456328</v>
+        <v>0.08371263413396644</v>
       </c>
       <c r="C25">
-        <v>0.01125224214069105</v>
+        <v>-0.004478934706540596</v>
       </c>
       <c r="D25">
-        <v>0.09280289803747391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.109808451245357</v>
+      </c>
+      <c r="E25">
+        <v>0.03192450324829059</v>
+      </c>
+      <c r="F25">
+        <v>0.02560618693124296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05932951926708899</v>
+        <v>0.05944735611522123</v>
       </c>
       <c r="C26">
-        <v>0.01796577200264903</v>
+        <v>-0.01459625792924497</v>
       </c>
       <c r="D26">
-        <v>0.02100138648634469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04291940183300121</v>
+      </c>
+      <c r="E26">
+        <v>0.02993734028322532</v>
+      </c>
+      <c r="F26">
+        <v>-0.006378916754467989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1329854277796828</v>
+        <v>0.142833809429838</v>
       </c>
       <c r="C28">
-        <v>0.01255107835635413</v>
+        <v>-0.02252992001905331</v>
       </c>
       <c r="D28">
-        <v>-0.2726093888939466</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2605884745960513</v>
+      </c>
+      <c r="E28">
+        <v>-0.06811216854466653</v>
+      </c>
+      <c r="F28">
+        <v>0.003638169042059336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02563622507972898</v>
+        <v>0.02858167252188753</v>
       </c>
       <c r="C29">
-        <v>0.009703416090112573</v>
+        <v>-0.008798788209090337</v>
       </c>
       <c r="D29">
-        <v>0.02438382377266473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03082290711862139</v>
+      </c>
+      <c r="E29">
+        <v>0.01318987968720561</v>
+      </c>
+      <c r="F29">
+        <v>-0.01392062109505725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0645874792065792</v>
+        <v>0.05907920635671814</v>
       </c>
       <c r="C30">
-        <v>0.01014416624235602</v>
+        <v>-0.002697417943335617</v>
       </c>
       <c r="D30">
-        <v>0.0655889172163914</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0877902500943533</v>
+      </c>
+      <c r="E30">
+        <v>0.01355030388864611</v>
+      </c>
+      <c r="F30">
+        <v>0.07973078964197675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05099355780160694</v>
+        <v>0.05095057990422956</v>
       </c>
       <c r="C31">
-        <v>0.01715138559333618</v>
+        <v>-0.01587938865101753</v>
       </c>
       <c r="D31">
-        <v>0.02054092343761554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02478234477058209</v>
+      </c>
+      <c r="E31">
+        <v>0.02901212039296337</v>
+      </c>
+      <c r="F31">
+        <v>-0.001915737844796994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04687569465826438</v>
+        <v>0.05073595191051714</v>
       </c>
       <c r="C32">
-        <v>0.002033437047249795</v>
+        <v>0.001780673822690729</v>
       </c>
       <c r="D32">
-        <v>0.0205331164631058</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03515933840359053</v>
+      </c>
+      <c r="E32">
+        <v>0.03366120298391595</v>
+      </c>
+      <c r="F32">
+        <v>0.001184943927110297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09243691198247973</v>
+        <v>0.08936450883967448</v>
       </c>
       <c r="C33">
-        <v>0.01415921016318098</v>
+        <v>-0.006724296233801595</v>
       </c>
       <c r="D33">
-        <v>0.08058756578660861</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1027933695418888</v>
+      </c>
+      <c r="E33">
+        <v>0.04624772993074719</v>
+      </c>
+      <c r="F33">
+        <v>0.03968000382655241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06994774875491312</v>
+        <v>0.06737688916062139</v>
       </c>
       <c r="C34">
-        <v>0.0159510939628949</v>
+        <v>-0.01010090337716886</v>
       </c>
       <c r="D34">
-        <v>0.08784140768565757</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1091982369876472</v>
+      </c>
+      <c r="E34">
+        <v>0.03489061506950349</v>
+      </c>
+      <c r="F34">
+        <v>0.03213598606955549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02411201418473611</v>
+        <v>0.0262030252746427</v>
       </c>
       <c r="C35">
-        <v>0.002994166467915201</v>
+        <v>-0.002781871096017025</v>
       </c>
       <c r="D35">
-        <v>0.007039270171902</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01194118555716642</v>
+      </c>
+      <c r="E35">
+        <v>0.0125708559079185</v>
+      </c>
+      <c r="F35">
+        <v>0.000502552848224491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02623463116132823</v>
+        <v>0.02755970259402504</v>
       </c>
       <c r="C36">
-        <v>0.007835041054588461</v>
+        <v>-0.006858572599225004</v>
       </c>
       <c r="D36">
-        <v>0.03876034433560255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03919733096083932</v>
+      </c>
+      <c r="E36">
+        <v>0.01651885373667529</v>
+      </c>
+      <c r="F36">
+        <v>0.01511145814779746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002742215060067424</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006319512156549472</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002012655484036925</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007216251444209203</v>
+      </c>
+      <c r="F37">
+        <v>-0.002066313246996332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1147956921175878</v>
+        <v>0.1029693750914377</v>
       </c>
       <c r="C39">
-        <v>0.02433087649512918</v>
+        <v>-0.01588483840540667</v>
       </c>
       <c r="D39">
-        <v>0.142143363663207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1522356932035886</v>
+      </c>
+      <c r="E39">
+        <v>0.05829160864182611</v>
+      </c>
+      <c r="F39">
+        <v>0.02881619316039592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03819602068928348</v>
+        <v>0.04291748469211501</v>
       </c>
       <c r="C40">
-        <v>0.009202887641420111</v>
+        <v>-0.007457116667743219</v>
       </c>
       <c r="D40">
-        <v>0.01738774043299239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03186696734577219</v>
+      </c>
+      <c r="E40">
+        <v>0.002656515353684019</v>
+      </c>
+      <c r="F40">
+        <v>-0.01867525537110418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02532350656000481</v>
+        <v>0.02787492446924373</v>
       </c>
       <c r="C41">
-        <v>0.007267311421883172</v>
+        <v>-0.006877844685106561</v>
       </c>
       <c r="D41">
-        <v>0.00886177151188719</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01038938883784905</v>
+      </c>
+      <c r="E41">
+        <v>0.01176072582445101</v>
+      </c>
+      <c r="F41">
+        <v>-0.005715360108983021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04235466393151694</v>
+        <v>0.04077113502923507</v>
       </c>
       <c r="C43">
-        <v>0.008278674509623956</v>
+        <v>-0.007346467131953108</v>
       </c>
       <c r="D43">
-        <v>0.01486038180132327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01935138296951828</v>
+      </c>
+      <c r="E43">
+        <v>0.02574067741907779</v>
+      </c>
+      <c r="F43">
+        <v>-0.01372832603815454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07195218517668989</v>
+        <v>0.07918328545600284</v>
       </c>
       <c r="C44">
-        <v>0.02599118500403652</v>
+        <v>-0.01908288424987151</v>
       </c>
       <c r="D44">
-        <v>0.08529099732051133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09613563430363524</v>
+      </c>
+      <c r="E44">
+        <v>0.06118477621156303</v>
+      </c>
+      <c r="F44">
+        <v>0.159854651544137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02183142428899915</v>
+        <v>0.0239549287490873</v>
       </c>
       <c r="C46">
-        <v>0.003922777712712925</v>
+        <v>-0.003458737631187413</v>
       </c>
       <c r="D46">
-        <v>0.005392090980643987</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01285906130803255</v>
+      </c>
+      <c r="E46">
+        <v>0.02670524308186685</v>
+      </c>
+      <c r="F46">
+        <v>-0.006810215528823502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05302443006874648</v>
+        <v>0.05324180130410418</v>
       </c>
       <c r="C47">
-        <v>0.004771339427990445</v>
+        <v>-0.004067067087970243</v>
       </c>
       <c r="D47">
-        <v>0.008433471424840747</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01087304924340653</v>
+      </c>
+      <c r="E47">
+        <v>0.02325841232974458</v>
+      </c>
+      <c r="F47">
+        <v>-0.0322747714019075</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04853034068721306</v>
+        <v>0.05005836417042918</v>
       </c>
       <c r="C48">
-        <v>0.00489327782286409</v>
+        <v>-0.002175058667799989</v>
       </c>
       <c r="D48">
-        <v>0.04286088908301736</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04955680160539561</v>
+      </c>
+      <c r="E48">
+        <v>-0.005544696565865936</v>
+      </c>
+      <c r="F48">
+        <v>0.008571626406086552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2026333609365766</v>
+        <v>0.2005409115940276</v>
       </c>
       <c r="C49">
-        <v>0.02210385808566419</v>
+        <v>-0.01928634192921846</v>
       </c>
       <c r="D49">
-        <v>-0.01597789638440329</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006094428817266044</v>
+      </c>
+      <c r="E49">
+        <v>0.03133047557244052</v>
+      </c>
+      <c r="F49">
+        <v>0.04331515663184618</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04985593969153371</v>
+        <v>0.05165401959218031</v>
       </c>
       <c r="C50">
-        <v>0.01324453887693647</v>
+        <v>-0.01169741775201871</v>
       </c>
       <c r="D50">
-        <v>0.02116351643492565</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02329187501874827</v>
+      </c>
+      <c r="E50">
+        <v>0.03024915922936186</v>
+      </c>
+      <c r="F50">
+        <v>0.009215011072217139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1560598453406416</v>
+        <v>0.1496021017966747</v>
       </c>
       <c r="C52">
-        <v>0.02032151784600613</v>
+        <v>-0.01846088929229511</v>
       </c>
       <c r="D52">
-        <v>0.04935179398072774</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04219349147080197</v>
+      </c>
+      <c r="E52">
+        <v>0.02198241309996101</v>
+      </c>
+      <c r="F52">
+        <v>0.04341296546545827</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1733007829685913</v>
+        <v>0.1701760517244414</v>
       </c>
       <c r="C53">
-        <v>0.02024960943020025</v>
+        <v>-0.02073514897757448</v>
       </c>
       <c r="D53">
-        <v>0.01395097054679093</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005907554578771195</v>
+      </c>
+      <c r="E53">
+        <v>0.02975196132529219</v>
+      </c>
+      <c r="F53">
+        <v>0.0734394725523717</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01700105057116819</v>
+        <v>0.01992232405017847</v>
       </c>
       <c r="C54">
-        <v>0.01230583690546756</v>
+        <v>-0.01090246403197226</v>
       </c>
       <c r="D54">
-        <v>0.02777168275825403</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03430795896734539</v>
+      </c>
+      <c r="E54">
+        <v>0.02155947371749323</v>
+      </c>
+      <c r="F54">
+        <v>-0.001841610981418276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1163300606833996</v>
+        <v>0.1155143093589405</v>
       </c>
       <c r="C55">
-        <v>0.01815673689774035</v>
+        <v>-0.01845521916491916</v>
       </c>
       <c r="D55">
-        <v>0.01131730675285646</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008122427013790002</v>
+      </c>
+      <c r="E55">
+        <v>0.02522757201595954</v>
+      </c>
+      <c r="F55">
+        <v>0.04583249216533843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1795820866736881</v>
+        <v>0.1763918509640587</v>
       </c>
       <c r="C56">
-        <v>0.01795648962552608</v>
+        <v>-0.0187874993766593</v>
       </c>
       <c r="D56">
-        <v>0.00777292077744888</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002175130989578967</v>
+      </c>
+      <c r="E56">
+        <v>0.03296724046390414</v>
+      </c>
+      <c r="F56">
+        <v>0.05254987930942835</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04844922826914003</v>
+        <v>0.04494706331566548</v>
       </c>
       <c r="C58">
-        <v>0.00585347235066541</v>
+        <v>0.0003222375377897889</v>
       </c>
       <c r="D58">
-        <v>0.05749896961438743</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07341835511085616</v>
+      </c>
+      <c r="E58">
+        <v>0.03399452396998911</v>
+      </c>
+      <c r="F58">
+        <v>-0.03608095313362631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1616587705608451</v>
+        <v>0.1672187611490364</v>
       </c>
       <c r="C59">
-        <v>0.01394321559911579</v>
+        <v>-0.02286769174688458</v>
       </c>
       <c r="D59">
-        <v>-0.2240913461012478</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2185971191344106</v>
+      </c>
+      <c r="E59">
+        <v>-0.04896677303375498</v>
+      </c>
+      <c r="F59">
+        <v>-0.03554430314576562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.238261234617147</v>
+        <v>0.2314343671069905</v>
       </c>
       <c r="C60">
-        <v>0.002173213612645533</v>
+        <v>0.001147279157052554</v>
       </c>
       <c r="D60">
-        <v>0.04193529182829141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04015299912475245</v>
+      </c>
+      <c r="E60">
+        <v>0.00711002345331203</v>
+      </c>
+      <c r="F60">
+        <v>0.0002399492383781747</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08674237725577873</v>
+        <v>0.07871044862628283</v>
       </c>
       <c r="C61">
-        <v>0.01801879000679096</v>
+        <v>-0.01132995551651311</v>
       </c>
       <c r="D61">
-        <v>0.09958810971399401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1170197362724095</v>
+      </c>
+      <c r="E61">
+        <v>0.03803444478742427</v>
+      </c>
+      <c r="F61">
+        <v>0.01140898145001091</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1705946317874998</v>
+        <v>0.1686169509676907</v>
       </c>
       <c r="C62">
-        <v>0.02171726933742413</v>
+        <v>-0.02135807459545342</v>
       </c>
       <c r="D62">
-        <v>0.006178957319217937</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005190438181655835</v>
+      </c>
+      <c r="E62">
+        <v>0.03286517443886107</v>
+      </c>
+      <c r="F62">
+        <v>0.03771823363681124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04322088403358233</v>
+        <v>0.04593215521423524</v>
       </c>
       <c r="C63">
-        <v>0.005894903488070148</v>
+        <v>-0.001859810328082902</v>
       </c>
       <c r="D63">
-        <v>0.04442711949054911</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05975812103427895</v>
+      </c>
+      <c r="E63">
+        <v>0.02446101599577944</v>
+      </c>
+      <c r="F63">
+        <v>0.003076512510838127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1127654003654933</v>
+        <v>0.1106594838256818</v>
       </c>
       <c r="C64">
-        <v>0.0155858219986095</v>
+        <v>-0.01184957194425165</v>
       </c>
       <c r="D64">
-        <v>0.0313883591601594</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04355950673880511</v>
+      </c>
+      <c r="E64">
+        <v>0.02269684867575844</v>
+      </c>
+      <c r="F64">
+        <v>0.02568618584673659</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1407523782707598</v>
+        <v>0.1516711431392973</v>
       </c>
       <c r="C65">
-        <v>0.0340730854535366</v>
+        <v>-0.03466731949654257</v>
       </c>
       <c r="D65">
-        <v>-0.0522483311547014</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0456682839293804</v>
+      </c>
+      <c r="E65">
+        <v>0.003991262730987527</v>
+      </c>
+      <c r="F65">
+        <v>0.03605871988832245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1382318501698972</v>
+        <v>0.1230279547963223</v>
       </c>
       <c r="C66">
-        <v>0.02272194852799457</v>
+        <v>-0.01415885994657778</v>
       </c>
       <c r="D66">
-        <v>0.1211651949047728</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1402313122109462</v>
+      </c>
+      <c r="E66">
+        <v>0.06383741919169564</v>
+      </c>
+      <c r="F66">
+        <v>0.03202447505512147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06304438551873225</v>
+        <v>0.05643144560665772</v>
       </c>
       <c r="C67">
-        <v>0.005579449937184488</v>
+        <v>-0.002983060191506185</v>
       </c>
       <c r="D67">
-        <v>0.05499143361332159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05639596259674184</v>
+      </c>
+      <c r="E67">
+        <v>0.01707009184201766</v>
+      </c>
+      <c r="F67">
+        <v>-0.02972144564319249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1060696907925316</v>
+        <v>0.1169501183016568</v>
       </c>
       <c r="C68">
-        <v>0.02240396896531009</v>
+        <v>-0.03334976064729725</v>
       </c>
       <c r="D68">
-        <v>-0.2695880313679389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2614093486551372</v>
+      </c>
+      <c r="E68">
+        <v>-0.08827544960460949</v>
+      </c>
+      <c r="F68">
+        <v>-0.002064922393200089</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04016226093972786</v>
+        <v>0.03877289852573305</v>
       </c>
       <c r="C69">
-        <v>0.002063796980661688</v>
+        <v>-0.001239610688257691</v>
       </c>
       <c r="D69">
-        <v>0.006759181885905403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008534838996186119</v>
+      </c>
+      <c r="E69">
+        <v>0.02360035834774233</v>
+      </c>
+      <c r="F69">
+        <v>0.0008215128597954981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06573284286030218</v>
+        <v>0.06591994570666486</v>
       </c>
       <c r="C70">
-        <v>-0.02468660353515397</v>
+        <v>0.02748922131952189</v>
       </c>
       <c r="D70">
-        <v>-0.007114786647488132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0256741747328684</v>
+      </c>
+      <c r="E70">
+        <v>-0.03086846920918892</v>
+      </c>
+      <c r="F70">
+        <v>-0.1762928626143412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1244869205670781</v>
+        <v>0.1365792815165543</v>
       </c>
       <c r="C71">
-        <v>0.02623353181904711</v>
+        <v>-0.03787135149548895</v>
       </c>
       <c r="D71">
-        <v>-0.2850876244650862</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2719242995820891</v>
+      </c>
+      <c r="E71">
+        <v>-0.09854397547976863</v>
+      </c>
+      <c r="F71">
+        <v>0.004169023621244159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1379550140725866</v>
+        <v>0.1435279001357114</v>
       </c>
       <c r="C72">
-        <v>0.02782631522581331</v>
+        <v>-0.02769331540859872</v>
       </c>
       <c r="D72">
-        <v>0.005986905270265413</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004210226501391354</v>
+      </c>
+      <c r="E72">
+        <v>0.0365717385806885</v>
+      </c>
+      <c r="F72">
+        <v>0.03022064322766645</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2081659185277857</v>
+        <v>0.2047088075788</v>
       </c>
       <c r="C73">
-        <v>0.01754959175198088</v>
+        <v>-0.01364936601756528</v>
       </c>
       <c r="D73">
-        <v>0.01047964160975768</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01740398979714679</v>
+      </c>
+      <c r="E73">
+        <v>0.06505941673705883</v>
+      </c>
+      <c r="F73">
+        <v>0.04063586158173116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0936577495149794</v>
+        <v>0.09530527341160766</v>
       </c>
       <c r="C74">
-        <v>0.01426297804386957</v>
+        <v>-0.01402209036267593</v>
       </c>
       <c r="D74">
-        <v>0.01982784540871379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01653370809513079</v>
+      </c>
+      <c r="E74">
+        <v>0.04380511818666357</v>
+      </c>
+      <c r="F74">
+        <v>0.05491746959502991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1335640725281215</v>
+        <v>0.1267212262175527</v>
       </c>
       <c r="C75">
-        <v>0.03037051763412147</v>
+        <v>-0.02900020082110547</v>
       </c>
       <c r="D75">
-        <v>0.03004015621896946</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02921255042061512</v>
+      </c>
+      <c r="E75">
+        <v>0.05720598340599466</v>
+      </c>
+      <c r="F75">
+        <v>0.02240867963127929</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0829088540389751</v>
+        <v>0.09005371483956705</v>
       </c>
       <c r="C77">
-        <v>0.01519981633513451</v>
+        <v>-0.008227178829846036</v>
       </c>
       <c r="D77">
-        <v>0.09854313448201399</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1141679633737262</v>
+      </c>
+      <c r="E77">
+        <v>0.04393133009100234</v>
+      </c>
+      <c r="F77">
+        <v>0.03303846252362044</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09919603673135229</v>
+        <v>0.09930110634918007</v>
       </c>
       <c r="C78">
-        <v>0.04401328238361992</v>
+        <v>-0.03852361106590763</v>
       </c>
       <c r="D78">
-        <v>0.1119265769731702</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1140026623996153</v>
+      </c>
+      <c r="E78">
+        <v>0.07600341907198603</v>
+      </c>
+      <c r="F78">
+        <v>0.05197256140757448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1644187884957863</v>
+        <v>0.1629343221896655</v>
       </c>
       <c r="C79">
-        <v>0.02489112221564935</v>
+        <v>-0.02388730404986147</v>
       </c>
       <c r="D79">
-        <v>0.01255225525846157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01299392479464701</v>
+      </c>
+      <c r="E79">
+        <v>0.04448196932527719</v>
+      </c>
+      <c r="F79">
+        <v>0.01145565892192347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08494966990788569</v>
+        <v>0.08219033922963986</v>
       </c>
       <c r="C80">
-        <v>0.002203335489363896</v>
+        <v>0.0004897011508641531</v>
       </c>
       <c r="D80">
-        <v>0.04700717939521409</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05537259001728505</v>
+      </c>
+      <c r="E80">
+        <v>0.03469763544032477</v>
+      </c>
+      <c r="F80">
+        <v>-0.01956942329212585</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1201626176133569</v>
+        <v>0.1176462548599426</v>
       </c>
       <c r="C81">
-        <v>0.03242388161914351</v>
+        <v>-0.03249882686841094</v>
       </c>
       <c r="D81">
-        <v>0.02318329378197768</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01425952900112435</v>
+      </c>
+      <c r="E81">
+        <v>0.05526039347735002</v>
+      </c>
+      <c r="F81">
+        <v>0.01851057404292171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1657296496237363</v>
+        <v>0.165485756765804</v>
       </c>
       <c r="C82">
-        <v>0.0257454054073992</v>
+        <v>-0.02624526649331226</v>
       </c>
       <c r="D82">
-        <v>0.01339347870770152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002889641861772989</v>
+      </c>
+      <c r="E82">
+        <v>0.02646921605527808</v>
+      </c>
+      <c r="F82">
+        <v>0.08105295564754038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06596018928619926</v>
+        <v>0.05870406872715137</v>
       </c>
       <c r="C83">
-        <v>0.006324633516326033</v>
+        <v>-0.003298880737110985</v>
       </c>
       <c r="D83">
-        <v>0.03879250229933151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04992822539617195</v>
+      </c>
+      <c r="E83">
+        <v>0.0034520619159994</v>
+      </c>
+      <c r="F83">
+        <v>-0.02941018829273301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0635596831987343</v>
+        <v>0.05773313605888036</v>
       </c>
       <c r="C84">
-        <v>0.01454072291372353</v>
+        <v>-0.01102135803758827</v>
       </c>
       <c r="D84">
-        <v>0.06550566746928053</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0723392201605738</v>
+      </c>
+      <c r="E84">
+        <v>0.01444923045693016</v>
+      </c>
+      <c r="F84">
+        <v>0.01308065144459333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.137780435714586</v>
+        <v>0.1345683659209991</v>
       </c>
       <c r="C85">
-        <v>0.02916189497083235</v>
+        <v>-0.02898796780628883</v>
       </c>
       <c r="D85">
-        <v>0.01564265504043312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009325047804581215</v>
+      </c>
+      <c r="E85">
+        <v>0.03599382448256071</v>
+      </c>
+      <c r="F85">
+        <v>0.04611296618111421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1005566114664175</v>
+        <v>0.09246836309179531</v>
       </c>
       <c r="C86">
-        <v>-0.00302180648045809</v>
+        <v>0.005979319659031163</v>
       </c>
       <c r="D86">
-        <v>0.00163359003401486</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04898506384042181</v>
+      </c>
+      <c r="E86">
+        <v>0.2362643326628126</v>
+      </c>
+      <c r="F86">
+        <v>-0.9050410288300181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0993944935239448</v>
+        <v>0.09311019428468917</v>
       </c>
       <c r="C87">
-        <v>0.02831352039003216</v>
+        <v>-0.0194397206977612</v>
       </c>
       <c r="D87">
-        <v>0.06978134765457135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09545914251202521</v>
+      </c>
+      <c r="E87">
+        <v>-0.05215426188491251</v>
+      </c>
+      <c r="F87">
+        <v>0.04838422578368493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0606253032568752</v>
+        <v>0.06032207567551828</v>
       </c>
       <c r="C88">
-        <v>0.005472384408669128</v>
+        <v>-0.002546021327122777</v>
       </c>
       <c r="D88">
-        <v>0.052845041403306</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04943921313552375</v>
+      </c>
+      <c r="E88">
+        <v>0.02418443771020506</v>
+      </c>
+      <c r="F88">
+        <v>0.01561570433300172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1175959187915365</v>
+        <v>0.1281877195791949</v>
       </c>
       <c r="C89">
-        <v>0.003560509731201211</v>
+        <v>-0.01298039251372829</v>
       </c>
       <c r="D89">
-        <v>-0.2579101204499502</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2449179576305568</v>
+      </c>
+      <c r="E89">
+        <v>-0.09166579099298949</v>
+      </c>
+      <c r="F89">
+        <v>-0.01109748748761799</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1358327312652779</v>
+        <v>0.1514816091890649</v>
       </c>
       <c r="C90">
-        <v>0.02289790981692368</v>
+        <v>-0.0345606752212516</v>
       </c>
       <c r="D90">
-        <v>-0.2725584137343259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2688863502609543</v>
+      </c>
+      <c r="E90">
+        <v>-0.1140498453677998</v>
+      </c>
+      <c r="F90">
+        <v>-0.01192986918554913</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1203121163238768</v>
+        <v>0.1211392312580332</v>
       </c>
       <c r="C91">
-        <v>0.01992409153901647</v>
+        <v>-0.02061140521882172</v>
       </c>
       <c r="D91">
-        <v>-0.007815022839153437</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01619466069173346</v>
+      </c>
+      <c r="E91">
+        <v>0.0548984614744724</v>
+      </c>
+      <c r="F91">
+        <v>-0.001718328629892638</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1376329319313236</v>
+        <v>0.1478080296093389</v>
       </c>
       <c r="C92">
-        <v>0.013060590840811</v>
+        <v>-0.02510609972971839</v>
       </c>
       <c r="D92">
-        <v>-0.3058800039223645</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.289761978861756</v>
+      </c>
+      <c r="E92">
+        <v>-0.1025067308697976</v>
+      </c>
+      <c r="F92">
+        <v>-0.0198347275214486</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1388152025708994</v>
+        <v>0.1523818666036894</v>
       </c>
       <c r="C93">
-        <v>0.0184779577827285</v>
+        <v>-0.02938246794884887</v>
       </c>
       <c r="D93">
-        <v>-0.2688975879160052</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2649777015151424</v>
+      </c>
+      <c r="E93">
+        <v>-0.07614505512323456</v>
+      </c>
+      <c r="F93">
+        <v>-0.001623806227715626</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1342153568914254</v>
+        <v>0.1273388854919663</v>
       </c>
       <c r="C94">
-        <v>0.02734485722882741</v>
+        <v>-0.02538230842876644</v>
       </c>
       <c r="D94">
-        <v>0.0432211782983611</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0407463167835423</v>
+      </c>
+      <c r="E94">
+        <v>0.05702919881852809</v>
+      </c>
+      <c r="F94">
+        <v>0.03499687766136202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.124961903427269</v>
+        <v>0.1262116936334359</v>
       </c>
       <c r="C95">
-        <v>0.009867103568342871</v>
+        <v>-0.003279364534373771</v>
       </c>
       <c r="D95">
-        <v>0.08161904468790447</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09804610198771008</v>
+      </c>
+      <c r="E95">
+        <v>0.05299973205649457</v>
+      </c>
+      <c r="F95">
+        <v>-0.00271574332916915</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1207439845058546</v>
+        <v>0.1130843751060681</v>
       </c>
       <c r="C96">
-        <v>-0.9869701973687056</v>
+        <v>0.9867273715424947</v>
       </c>
       <c r="D96">
-        <v>-0.011848138723138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05112932034485426</v>
+      </c>
+      <c r="E96">
+        <v>0.05191998800968</v>
+      </c>
+      <c r="F96">
+        <v>0.04220974109513415</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1940472605393469</v>
+        <v>0.1944291682011901</v>
       </c>
       <c r="C97">
-        <v>-0.005354677562858894</v>
+        <v>0.005928039156508672</v>
       </c>
       <c r="D97">
-        <v>-0.01412297046896586</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01974529794739752</v>
+      </c>
+      <c r="E97">
+        <v>0.02156171724851565</v>
+      </c>
+      <c r="F97">
+        <v>-0.09061713022984018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.199117305752061</v>
+        <v>0.2065494381748234</v>
       </c>
       <c r="C98">
-        <v>0.01188490469267682</v>
+        <v>-0.007408419741151984</v>
       </c>
       <c r="D98">
-        <v>0.01044317023891139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01495321887517734</v>
+      </c>
+      <c r="E98">
+        <v>-0.07437435026169362</v>
+      </c>
+      <c r="F98">
+        <v>-0.09031378077625164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05574284350558532</v>
+        <v>0.05524437896199028</v>
       </c>
       <c r="C99">
-        <v>-0.001996508098792624</v>
+        <v>0.004253544590961636</v>
       </c>
       <c r="D99">
-        <v>0.02498426199511491</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03831021669319611</v>
+      </c>
+      <c r="E99">
+        <v>0.02152334652786765</v>
+      </c>
+      <c r="F99">
+        <v>0.003390654716012764</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1416096077935501</v>
+        <v>0.1285101223357072</v>
       </c>
       <c r="C100">
-        <v>-0.03782195091370799</v>
+        <v>0.05202067049835684</v>
       </c>
       <c r="D100">
-        <v>0.4114190300651372</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.352039462441033</v>
+      </c>
+      <c r="E100">
+        <v>-0.8831019389853806</v>
+      </c>
+      <c r="F100">
+        <v>-0.1635759400915294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02548506979521816</v>
+        <v>0.02852764585442105</v>
       </c>
       <c r="C101">
-        <v>0.009607376909248516</v>
+        <v>-0.008812902459495226</v>
       </c>
       <c r="D101">
-        <v>0.02403808244325778</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03049038682793345</v>
+      </c>
+      <c r="E101">
+        <v>0.01261001837153001</v>
+      </c>
+      <c r="F101">
+        <v>-0.01508262362584336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
